--- a/notification_configs/04_mismatch_notifications.xlsx
+++ b/notification_configs/04_mismatch_notifications.xlsx
@@ -1,40 +1,154 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\Hackathon\FInalAttendo\Attendo_Ai-master\notification_configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F81EAC-28EA-4367-BE91-AEE189F14208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28260" yWindow="2380" windowWidth="21590" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NotificationData" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>ContactEmail</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>NotificationType</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>RecordID</t>
+  </si>
+  <si>
+    <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>MismatchDate</t>
+  </si>
+  <si>
+    <t>WebStatus</t>
+  </si>
+  <si>
+    <t>SwipeStatus</t>
+  </si>
+  <si>
+    <t>MismatchType</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>CreatedTime</t>
+  </si>
+  <si>
+    <t>NotificationSent</t>
+  </si>
+  <si>
+    <t>NotificationSentTime</t>
+  </si>
+  <si>
+    <t>ExplanationRequired</t>
+  </si>
+  <si>
+    <t>ManagerID</t>
+  </si>
+  <si>
+    <t>ManagerEmail</t>
+  </si>
+  <si>
+    <t>RetryCount</t>
+  </si>
+  <si>
+    <t>EMP003</t>
+  </si>
+  <si>
+    <t>mike.vendor@company.com</t>
+  </si>
+  <si>
+    <t>🚨 Attendance Mismatch Alert - You marked In Office but have no swipe records for September 19, 2025. Web Status: In Office Full, Swipe Status: No Swipe. Please provide an explanation.</t>
+  </si>
+  <si>
+    <t>MISMATCH_ALERT</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>MISMATCH_EMP003_20250919_011347</t>
+  </si>
+  <si>
+    <t>Mike Rodriguez</t>
+  </si>
+  <si>
+    <t>IN_OFFICE_FULL</t>
+  </si>
+  <si>
+    <t>NO_SWIPE</t>
+  </si>
+  <si>
+    <t>OFFICE_BUT_NO_SWIPE</t>
+  </si>
+  <si>
+    <t>M002</t>
+  </si>
+  <si>
+    <t>bob.manager@attendo.com</t>
+  </si>
+  <si>
+    <t>MISMATCH_EMP003_20250919_011236</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,99 +156,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NotificationTable" displayName="NotificationTable" ref="A1:E7" headerRowCount="1">
-  <autoFilter ref="A1:E7"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="EmployeeID"/>
-    <tableColumn id="2" name="ContactEmail"/>
-    <tableColumn id="3" name="Message"/>
-    <tableColumn id="4" name="NotificationType"/>
-    <tableColumn id="5" name="Priority"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="MismatchNotifications" displayName="MismatchNotifications" ref="A1:S3">
+  <autoFilter ref="A1:S3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="EmployeeID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ContactEmail"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Message"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="NotificationType"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Priority"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="RecordID"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EmployeeName"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="MismatchDate"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="WebStatus"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="SwipeStatus"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="MismatchType"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Severity"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="CreatedTime"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="NotificationSent"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="NotificationSentTime"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="ExplanationRequired"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ManagerID"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ManagerEmail"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="RetryCount"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -422,219 +511,211 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="26" customWidth="1" min="2" max="2"/>
-    <col width="45" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="25" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>EmployeeID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ContactEmail</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Message</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>NotificationType</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Priority</t>
-        </is>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>EMP001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>john.vendor@company.com</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Timesheet hours mismatch detected</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Mismatch Alert</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45919</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3">
+        <v>45919.051240787026</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>EMP002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>jane.vendor@company.com</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Discrepancy found in logged hours</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mismatch Alert</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>EMP003</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>mike.vendor@company.com</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Please review and correct timesheet entries</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Mismatch Alert</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>EMP004</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sarah.vendor@company.com</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Timesheet hours mismatch detected</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Mismatch Alert</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>EMP005</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>david.vendor@company.com</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Discrepancy found in logged hours</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Mismatch Alert</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TEST001</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>test001@company.com</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Please review and correct timesheet entries</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Mismatch Alert</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3">
+        <v>45919</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="3">
+        <v>45919.050426643516</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>